--- a/Test_files/test_documentation.xlsx
+++ b/Test_files/test_documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbima\Desktop\thesis_env\venv\BiT-ReNU\Test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1F86B-DE15-40BE-9B34-02BD4FB9EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896B37F-D2CF-4A89-8D4F-0E3CB032BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="9156" windowWidth="17280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>test_id</t>
   </si>
@@ -238,6 +238,81 @@
   </si>
   <si>
     <t>The multiplicity of the object end will be empty.</t>
+  </si>
+  <si>
+    <t>An Employee has a name.</t>
+  </si>
+  <si>
+    <t>A customer has a name.</t>
+  </si>
+  <si>
+    <t>An Employee is a Customer.</t>
+  </si>
+  <si>
+    <t>A day statistic is a sale statistic.</t>
+  </si>
+  <si>
+    <t>A vehicle is part of a vehicle purchase.</t>
+  </si>
+  <si>
+    <t>A day statistic is part of a week statistic.</t>
+  </si>
+  <si>
+    <t>A vehicle purchase must have a vehicle.</t>
+  </si>
+  <si>
+    <t>A week statistic must have a day statistic.</t>
+  </si>
+  <si>
+    <t>A new attribute will be added to the subject class.</t>
+  </si>
+  <si>
+    <t>The attribute will be deleted from the subject.</t>
+  </si>
+  <si>
+    <t>A generalization will be added between the two classes.</t>
+  </si>
+  <si>
+    <t>The generalization will be deleted.</t>
+  </si>
+  <si>
+    <t>The composition will be added. The non-composite end will not have multiplcitiy.</t>
+  </si>
+  <si>
+    <t>The composition will still be present if a ‘’Whole has Part’’ Composition sentence is still present.</t>
+  </si>
+  <si>
+    <t>The composition will be added. Both ends will have multiplicity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The multiplicity of the non-composite end will be deleted. If the corresponding T.5 sentence for the composition does not exist, the whole composition will be deleted. </t>
+  </si>
+  <si>
+    <t>AN.35</t>
+  </si>
+  <si>
+    <t>AN.36</t>
+  </si>
+  <si>
+    <t>AN.37</t>
+  </si>
+  <si>
+    <t>AN.38</t>
+  </si>
+  <si>
+    <t>AN.39</t>
+  </si>
+  <si>
+    <t>AN.40</t>
+  </si>
+  <si>
+    <t>A new association will be added between the new subject and the object. The multiplicity of the subject end will be empty.The multiplicity of the object end of the association between the original subject and object will be empty.</t>
+  </si>
+  <si>
+    <t>An employee can advise a vehicle purchase.</t>
+  </si>
+  <si>
+    <t>A customer can advise a vehicle purchase.</t>
   </si>
 </sst>
 </file>
@@ -635,19 +710,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="35.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="49.42578125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -661,12 +736,11 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
@@ -706,7 +780,7 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -720,7 +794,7 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -734,7 +808,7 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -748,260 +822,455 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="45" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="46" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="47" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="48" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Test_files/test_documentation.xlsx
+++ b/Test_files/test_documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbima\Desktop\thesis_env\venv\BiT-ReNU\Test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896B37F-D2CF-4A89-8D4F-0E3CB032BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637F33F-9D7B-4FBE-A37F-476B97D91579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="9156" windowWidth="17280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>test_id</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>A customer can advise a vehicle purchase.</t>
+  </si>
+  <si>
+    <t>A boss can advise a vehicle purchase.</t>
+  </si>
+  <si>
+    <t>An employee must advise a vehicle purchase.</t>
+  </si>
+  <si>
+    <t>The multiplicity of the object end of the association will be switched accordingly.</t>
   </si>
 </sst>
 </file>
@@ -713,8 +722,8 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,23 +967,41 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -982,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1006,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1014,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1030,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -1046,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1054,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1062,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
@@ -1070,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -1078,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -1178,100 +1205,160 @@
       <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test_files/test_documentation.xlsx
+++ b/Test_files/test_documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbima\Desktop\thesis_env\venv\BiT-ReNU\Test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637F33F-9D7B-4FBE-A37F-476B97D91579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60519262-762E-4804-8CAE-5F6C4947707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="9156" windowWidth="17280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="17280" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>test_id</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>The multiplicity of the object end of the association will be switched accordingly.</t>
+  </si>
+  <si>
+    <t>PT.01</t>
+  </si>
+  <si>
+    <t>PT.02</t>
+  </si>
+  <si>
+    <t>PT.03</t>
+  </si>
+  <si>
+    <t>PT.04</t>
+  </si>
+  <si>
+    <t>PT.05</t>
+  </si>
+  <si>
+    <t>PT.06</t>
   </si>
 </sst>
 </file>
@@ -719,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,6 +1379,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
